--- a/Single DAO Result/LDO results_output.xlsx
+++ b/Single DAO Result/LDO results_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002547989872688492</v>
+        <v>0.00121729587312801</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5783427967084469</v>
+        <v>0.6385718964810593</v>
       </c>
     </row>
     <row r="4">
@@ -467,17 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.52737977146014</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Users</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.4600985437288171</v>
+        <v>0.5187810491197854</v>
       </c>
     </row>
   </sheetData>

--- a/Single DAO Result/LDO results_output.xlsx
+++ b/Single DAO Result/LDO results_output.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00121729587312801</v>
+        <v>0.002862066066831961</v>
       </c>
     </row>
     <row r="3">
@@ -457,17 +457,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6385718964810593</v>
+        <v>0.6515829827386425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Develop</t>
+          <t>Treasury_MarketCap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5187810491197854</v>
+        <v>0.5060885185074333</v>
       </c>
     </row>
   </sheetData>
